--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/65_Rize_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/65_Rize_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{803A009F-2D50-483A-A2FC-9B0F6EE6D648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9BA5E8C-4FB3-46F5-927A-1465FD82807D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" xr2:uid="{2C272923-4CCC-4480-8873-3B51821EBFF4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" xr2:uid="{D32947B9-4358-4DE5-B23D-973032D6FAE0}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -966,13 +966,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{E0C8B7A5-F698-4178-B686-4B03C02CD90B}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{7C2B6B3C-91E9-4D95-BAAE-F36512F892B5}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{7CC046B9-2E58-4B8B-A09A-D73CF8CFCE45}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{29D2F80F-078A-4251-91F2-46E17103DEA1}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{C2A55B9D-66E2-4410-AC77-E9F5EE340174}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{806337D1-1D47-48AD-8187-7A5E9387D9DB}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{C79A1642-9EC4-499B-ACDE-4CC5BF0B2F2F}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{1122CC74-09AB-4BA8-BCFE-0DD90687AD96}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{13D9179F-B95B-47B8-89C8-F5FED3D0D4FC}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{5014C671-408F-4719-8616-7D53BB9470F1}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{3CE39A17-A7B0-4C95-AE29-BF5EE2FEDFBA}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{43EFFF88-B4D4-4D4F-A3D6-1233B2158DE1}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{35450B7F-5EA2-4CDE-A0C6-3E42EDE66DEE}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{2B0F6F78-44BD-4589-BF02-0CACC59FB67B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1342,7 +1342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64AE5E2D-DE15-4AB6-8D2A-5DEA0F1DAD54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A99E48-3A3D-40B1-93D7-EC356843DC5C}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2594,18 +2594,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0CB4BBF8-73AB-46BF-84F3-BEB2E695D469}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{889F77A8-6999-4DCA-B466-168A9EE75956}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4C86316B-BFFA-48B5-8242-C84DF31F9CA7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E357B382-99A1-4A46-A417-5C4B0C0EAFCA}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{07F7AFCA-1F71-4558-9666-D87054260954}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F33688F6-7166-4D9E-B070-612D078E5711}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0B2AFC57-5F20-4314-9974-A4D30288EC0A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{12E2B73C-D6D8-45CF-9579-BC8C1DA7FAF4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A296EFEC-2908-40F1-BDF8-A3DADF965783}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B947A6CD-FB53-45F3-BD52-25623631B0B2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{871A3040-931C-4585-A55C-4973CA21D1C3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AF488EC3-CB07-43F0-BD46-2F2F6C86AECB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EB4EDA09-2FAF-420A-9299-AF703D325963}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{65CB7654-011A-4B8F-BDF2-FB2C2BEC471B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{860BB77A-993F-4D9C-97F7-1E27EAC0F4FE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F3307ABC-C5B8-4864-9E18-91BFE7E4C3FB}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{70D5F6B9-734C-465B-9DB8-9975C6D21E7D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{280F2A94-A37A-4974-B460-2EDC89ADA2F0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D9B6F2B2-8DC2-47B1-B05F-46FAB81590BF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7BD4FCDB-1BD1-4981-BD35-E2BE46DE0ED3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{42C62C42-FADC-4CF6-9818-4D1361688950}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D6129259-08FF-443A-91BC-BC3CF8CE7CDA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3E03C503-A817-4968-9EF2-7831C7A0E4AB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{15F29F9D-1652-4455-BF9E-34CF9A81629A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2618,7 +2618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D785A470-6014-4CA7-8D5F-312EC4482538}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5F399D-C97C-4F01-A76B-A3FE2CA29D1D}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3860,18 +3860,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A52F8676-5FF3-45BC-A137-7D284D8C9649}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D0BA41C7-B205-464B-AAF9-7FB5A657EEF7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D2A01358-9A0C-49D5-B244-40BA26682E03}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B5D966FD-5B60-451B-8A22-98D6D1CDAD63}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{6D8F2E99-98C6-4C88-9CD9-2C7E372E72CB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DF8204FD-7474-4EC1-92AC-0FB147CA06B9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6AA4908D-C991-452F-9F8D-9320C55165D9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E2E23450-1C39-4DC3-ABA2-1393D151BE81}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{00ED64EE-58EE-4B3B-B5AA-9289BD13A4A2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4BF79895-704B-4095-9695-AD7686333BE6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{244ED3A1-6FC2-4631-B31A-E012042B3CE7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{838E1516-B895-4DDC-A379-5437DA876AFB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1EF4E123-1523-45F7-BAF3-53DA21A66DDF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E318B633-ADB0-4518-94B0-0C74703EA593}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BECEC64D-845E-4D3B-96F0-22202B72A03B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{24E45E97-8813-454A-803C-09F155249008}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{CF99FD7D-88D0-4502-8505-2B0C5D122E88}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FF2F72D2-23E0-4586-A1EE-95B00D02AC11}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8017D4F0-C209-49ED-9004-4795F823D3FA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A76DF2C9-B4F8-477C-A094-69B6F2EE28C6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{90AE355B-0CF8-4612-92C2-1A9CDE7A6D05}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{71C1A7C1-2A75-40F3-B833-033DE2988C31}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3CC6DF55-A715-4534-BFDC-AD2C11C881EC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1BC8A289-CF58-4B96-AA37-B32A3A190270}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3884,7 +3884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B89EAE83-98DA-4C2B-B2B2-846C77DF7FF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6E52AD1-D1F1-4C7F-AAD1-B2D029B7F728}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5126,18 +5126,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AFCAF077-6B98-42AA-B7F4-5BEB371E67CC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{81EF0B0E-B5F3-4CB0-AEDD-00B48F58C2D7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C4C41C5F-9107-4970-BCE9-883235200637}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CF710035-512B-463D-9E36-10E3E006ACEB}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{E2A23F12-B2B3-48B2-A9F6-324420C53935}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F1258613-0CF9-49B1-A800-9D3A81737270}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B1C26DFF-2E32-4A31-80AC-A3B63F529AF8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{51794BB1-F0BD-419D-A897-7449A083A859}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7E764150-C237-4E4B-8CC1-5FC9CD8EDA9C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{02518178-682D-4642-AAC4-8FE001880407}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1FE2E8EE-3BCE-4F4C-8D8A-6111C7D460AD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AC874825-BC2C-41D4-A718-E93101B43AA9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3E3BAD21-02ED-4043-A00B-B11C1BCA7302}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0529127D-8F97-4838-ACC3-5700B11C5EE3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2ABAA74D-61C7-47EB-AD88-9E1429805B38}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{17CBC62B-635E-4FB2-8BA5-ED7241B4A34C}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{16606D73-5340-47E4-9F5A-0F252B0EC3F4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5F0C5D0E-DF17-4D83-ACB1-292446C1704C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{69E14AFB-92C7-4233-A6C7-A6296768E188}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{20A0F0DC-D6E9-4BCD-AAB5-8D33E2DC8736}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5BF82C20-9AB7-49BD-BBFB-2E221CFD7D03}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{10DD4871-87A6-4F94-BF12-21464650628F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{15785146-1EA9-42B6-86A4-43446C493373}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{802B8F54-4162-4342-A70D-EB6348FBD5A3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5150,7 +5150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6876852-A50B-4CA7-80B2-E7CD9E931CA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8D8E60-1674-4793-9790-233DE06C2CE0}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6392,18 +6392,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{15F620B1-029C-44B5-BEDF-3A9250D440EB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{209F291E-2E15-44D7-A396-B7F130E1A0D1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8F6AD385-8F3A-45B7-8177-D712E3790551}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C59E04C8-12C5-417D-A1EE-3D4117D0E94E}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{9F787DA0-14F5-4B77-A648-A3DB5DD433CD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8B6D7EC4-E7EA-4132-9BC6-2DC054FEA8DE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3CE2E545-985F-4B0D-8B61-F462693211BB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BFCE8A89-AC40-43EB-98CB-FA6F04C3436B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BE1F380D-3C45-4C46-8BDE-C4BD298BB844}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{44033654-76DC-4565-83A7-7619D1C905CC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FF880C8C-5E2B-4B93-9E41-3731E3233051}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{474FB2A4-AA6A-4C1F-82C7-DE9708D83BBE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{054389B9-7F68-45CA-AD48-9B20B6FF1543}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0367B891-8D6C-4F0B-A0BA-592127C7B0A9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5BCF88B7-BC50-4AE2-8DAE-6566DE2F5B94}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0EAE5460-CAAD-4E67-ACC2-D873E04CC79C}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{521D0CC1-FD8E-4285-9941-E4A0BD16B666}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A8BFD98D-8185-45EC-A4D9-1936B6394C39}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B3501FD0-AF67-4EDE-AE37-A991434F039E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E7153025-E088-4FD6-98CB-E1CA2247683B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A1EA1301-F257-4D6C-B11A-7D1937BD355E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6CC78473-B80B-46AC-B743-86CD26700659}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8C27324B-B7E1-408B-ABEF-FA5BEB2FD9E7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A7D24C98-1ECC-499B-B73B-703701EFDE8B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6416,7 +6416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{159BBFF0-828F-4F75-9148-64FDB7045028}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4ACED5-731F-45B7-960E-B34039F8FA41}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7665,18 +7665,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{76FE7C18-8B05-4196-A52F-FD90F8DF67ED}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{01CED0B6-12EC-48EE-AB4E-63C686F502D9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{49CDA26D-A1E6-429A-BCED-9F36191195B2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{71949E05-4026-45C0-9D18-2FECB424CD98}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{894330D8-D61E-4635-A9C1-76CC6B47FCF8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{171F5FE4-AA33-4CD0-A3ED-2F33B17CDE4A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4D076F08-C2C5-428C-9523-B0BEDB74DD4E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F91D0CA2-54E9-4D5A-BD0C-D3E90C49EA20}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F4ABC6BD-0033-4009-B5AC-8421D006E955}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DCE5A7A8-8A78-4706-A00C-D298A5F11A0D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{391E9E1D-B4B5-4995-ACED-310D5552D186}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{965A0A06-2215-4895-B935-4DF135D5B5AA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8A3B0AE5-67F9-4792-8C4A-EBDD4E62DF2D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{64C81E17-C2CC-4AC4-AB30-F3E988FF03AF}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0B1D5154-FE17-4F25-AA22-D1548D388A29}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0DCDDDD7-A3B3-4473-AC1F-5B50B4D12432}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{CB31D6D3-AFCF-4869-8A11-76580F67CBBE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A1392410-BC60-4C25-8E38-756A49C66C41}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6A4F307D-A326-4B95-96C1-6AF90C81BBCE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1BE054FE-A4C3-4835-967B-F910BD9DB046}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FAAA77A6-2CD5-4EFE-AF96-8F48400693B5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9181CD38-D0F8-45C3-96E5-5AFEC0E54CE9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F71516BB-5F23-43B4-83E5-994D92D8FCC0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D0C5E38B-1AE5-442E-BE88-09D476F8F37A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7689,7 +7689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA7004D8-00F3-45D8-AFA0-D084E80B0380}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F60F536-3116-4581-96EB-C65AFBAA5021}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8938,18 +8938,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5A2E0E08-2C26-4131-ABF9-BE917A39AC00}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DF89F553-E665-4780-B83E-E0FCCCEBB2E1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8996186E-7C62-4303-82CC-D6DF335978DC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C15B289E-9FA6-4B7B-A19D-FB231CC7ECF6}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{2D86E7F8-3F2C-42CD-BC07-F041D6E2C8A9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D75A2DEA-5440-4083-85CA-8E11AF96EEE9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D050FFE0-53C7-4EF2-B984-FB97BA0FC277}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{389F8C55-4E4A-4C3E-B61C-75FE22A07106}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3B1CB7B1-BC5E-4B0A-A9AD-0B6E45B83CC0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3403A898-3DAF-48A3-BAF2-6EC9E82FCDC6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1B6BC0B2-DFAA-4A96-99A6-FD031D8F5DBF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DD3AFE72-D6ED-4D75-8349-17DCE4EE7C4F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{30CF32F2-9D89-4345-B2A1-4B2FA3B47494}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D6878663-8F83-44A3-838D-80CB3A22117A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3BECB35A-A628-482A-BDCA-5BF4474CFB20}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{726E4FAB-0EE5-48B3-BA95-2274DF02654E}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{26B082AC-21B1-4955-BB29-1181A6CEEFD9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{93DC2B43-3793-411A-8E7A-F9D6F4229188}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{683B2B56-997B-4AC1-95E1-37DFCEC142BE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DC4C634B-875B-428F-95D7-186322F10D25}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1DC5B084-F1DC-4925-BE43-1D6E4DC4534D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F76EFD7B-CDEA-405E-AC5A-57A1770E3297}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E20F2AB8-9330-4C2A-A2E4-212412D53618}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B56D6EFC-B815-46E3-A443-10A15C35FAC0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8962,7 +8962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063186CA-4581-47B7-ABFA-480DC1E53E2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18B63FB-71FD-4F08-ABAB-C1064CE013AE}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10211,18 +10211,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{11671EF5-FBEA-4822-BE3A-2984496270D6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E3E6A59C-7FE5-4607-AD04-ADED9BE8E7FC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6058784C-8FCE-4F22-8F40-6EA441259717}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E508DE60-EB08-4B38-8684-F64290367135}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{E86BE97A-547D-4717-A1CC-0E4422EFFE8D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BEA115F8-543F-43C3-9C27-DC5C74494623}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BA85EBAC-53BA-4939-ACE2-A6C6DA43EA9B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{405846F0-8D34-48CF-9698-67931FBB5ECC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{025D6455-94F3-4D4D-8682-F709B607B5F5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{172EC82E-111F-4A6C-A962-99554540A36A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{13B2ADE4-F086-47C3-828B-5401E38559A5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1AE488E6-BB38-4D6B-B1F4-2511D98DD67F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6B3DF333-CAF8-4BAC-B9DE-9EC710EEEF2B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3F1B952E-C82F-4461-9C8D-E8FD96FA7CEF}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2EA7E23E-06EA-4588-A5C3-75C8C80027B8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D81DD489-A647-441E-85C7-C199CABC7763}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{9CE69CC8-0256-4C4E-B458-F483DD4C64CB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8F5D5CCE-549D-41C7-BC57-028735C496E2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C1F9BE4C-B5C3-401D-98C0-191592A11064}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4BA567B1-F073-403F-A4D0-06B2E3922E8B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0827F9CB-5940-4670-8B07-F805782DE9E0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4ACF191D-D2BF-4937-B6DF-C9355A07E220}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{58E4520F-6E14-4EA5-94DB-7FABBE2B7FFB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{17BBF070-0AE3-485E-A703-B0A65910FAD0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10235,7 +10235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5753BE-640C-48A3-A822-42D61D083523}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616AD90B-0631-4F98-B609-7A02CAF342C4}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -11485,18 +11485,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{545C0BEF-1823-44D4-BCC3-40C87F5D2779}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4D2438C4-3E26-407D-BCBB-01E8589A61C5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{88DFE14A-7450-4C6B-AA60-26A19C53C0D5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AB14578A-15F5-4A81-B65E-4448EC848019}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{091616E8-09ED-4181-AE4C-6572F1B6D866}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E5B36B88-5917-47CB-BFC1-858F3B608EB4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FA0AB2F1-255C-4CDD-8744-D7DD9D73300C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C23E5A07-47F4-4AB0-9CF3-0DC6C18D4229}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3879B586-A2DE-4960-ACF5-D70FC0ADE87F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CBE8343F-49C3-4B65-A3AF-867D2805C8B7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C98676F9-1E62-4952-9A93-9D9CEFCC5258}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EE0DEB0C-9F56-4200-B528-0E3F55D285F4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1080878A-86C2-4517-9AE3-31EFC8087E22}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3D4989D6-1EB8-42F0-B2FB-94EA49B30775}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1679CFC0-B717-4469-891C-AEC0531F41AA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DE3B2F35-BD15-4329-93F4-09E66AF0ACBF}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{B51C3C84-96B1-4D38-97E0-A00067ABA711}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0E6DB510-A4ED-4080-A423-6C7942F32C28}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6A9213AB-B7D6-44FF-8600-2378DB753067}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2F904B02-F5CA-483E-BA93-6202974C96D0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{25DCB8B5-6FAC-435C-BEDA-E292F1F0320B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9C3D7061-1C0F-44EA-9BAC-B5FFC698BE7F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4D9CFA01-BC5B-4A9B-A25C-E6B61E5E19EF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F7021A1A-140D-49A3-B2FB-B9DBD54EA0FD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11509,7 +11509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06790A86-0E98-43B5-904F-D879669F10A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C827B7-79E6-490A-9BF9-E6E47F81C570}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -12759,18 +12759,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2F05294C-E6D1-4547-8F82-65C1A0191F4D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{42B481DA-BBD7-4D9E-B613-7A1D67EA0BC9}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5AD2A735-8223-4FD4-87F4-55B601C26155}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9CFE6F58-F1AD-4099-86AC-0EB3539D9339}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{A3A219B7-6264-4ADB-92A2-CE1A9B9359AA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4C1C9D05-E1E4-4499-979A-0E93DCFC6461}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DA88F02D-319E-404A-B338-134D99BCEF89}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{56559BCC-0FE4-4158-B813-EB2F17C4CC99}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{39B70E85-941B-4132-A138-794CD9D186AF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4D9A532B-C174-4D76-B219-E8E6002EE714}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E9F52905-2167-45F6-920B-B610DA739205}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BAD9C3BA-18D5-44B6-9012-93B01FB880DE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{18FBCD79-C086-46FD-8A9A-B3D5EB1EA354}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3157AE83-B857-4036-88B0-7DF751DA6511}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8B6338B9-C388-4ECD-8262-FCD4F4F32BEB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{87206414-8B02-44D9-ACA3-75DF71900E06}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{FD8AC24C-1EEB-4119-AFCA-3D8803017C3B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{86336F41-21C7-4393-9F46-FA14C4D0F797}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7C34C8C9-265F-484A-85BA-6C8C25D29BB8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FA952528-6BAF-42F1-B70E-99B8464F137B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{41E46C89-8EE0-4010-89C4-9199171CBFE9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EDF1008B-7543-4A3E-8B11-4F98E0BF530B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D95D183D-88DB-4E11-AA83-068083DF11AC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6C5400E9-AB4F-4AA0-9482-B36CFC443ECE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12783,7 +12783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D621A4C4-5F3C-4DBA-91EA-0D30A7824EA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{818DFF2F-F99E-4540-A182-6A1092B3E72C}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -14033,18 +14033,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8FAF098E-ABDA-4829-93FE-60D3E306399F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0118E452-C4C2-4276-936B-715B8E96433B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BFB64D3A-3CF3-4326-ACB8-B115288B0722}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{41B37CB1-3DEF-48B1-975D-93B495C3FC9D}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{3C1B763C-35F6-401C-A959-710D1B91BF07}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{652DA404-3914-4C43-95AF-01C7782AA5B5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{03A47610-46A4-413F-B653-01F98255FCEA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6CE091A4-4DAC-4FF1-BE00-301002AC3500}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6527E866-5548-47FD-8B63-71473983C2A4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BEC3B427-E1BC-4434-A78E-698961B2DDC2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F9FCCDA4-ACC3-4A77-8572-99DFD8D8BD72}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{51B7DD7F-1552-4A08-9A45-CF463611B24F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CD84A1AC-FCC5-4AC8-8914-D144ABF26838}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{49DAA54D-3B33-4EBF-9CBA-43BDA32AB13C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{102544CD-890B-498D-8615-50832BDEE03D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{73B8AF1F-F021-4DFA-BE79-6B7A3DA8B80C}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{3A9F919E-853E-428D-A8EC-4617DA56ABCC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F841B93C-05C8-41C0-9F47-BC6CB3BBC184}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3EA0F81C-F507-4C6E-B18F-28BED22C95A3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1D8BC93D-FB6D-4645-A1E7-8D015D2E9E1D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B2168821-464F-4B3D-A845-BF5B181A2FA7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{872A9B4D-15F7-43A9-B8C0-76EB1414785F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{27927F6D-9CD2-469F-A929-F01497A07472}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8C982BE2-AA41-4471-9C81-13318E9C2CEE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14057,7 +14057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6012041D-224C-4562-B34C-BE11FDAD14FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C274B712-D6F9-4FA9-8C9F-50B433ED0C89}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -15307,18 +15307,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7BBD4151-F04D-4BA2-A201-7C7B5BC608CA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BD690520-B6D9-4E6C-915B-3512DD0853D5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{136E6568-D385-4599-8E67-EDB2B3B04788}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7A74E6FC-66CC-4AF5-B7D7-D6C063451DEC}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{30593F90-29C2-4F61-96EE-D93155F4B4BF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A7171D06-3BEF-4636-81B3-0E66CB74850B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9EF5FB9A-B6C2-4B8F-8D59-1485DC28A087}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{93C172EE-CC2C-452E-BF5C-BE0E47C8DD35}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{61825EDD-BB47-462A-A6C4-DE1D6E5796CE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1432F7A6-D300-4264-8A8E-491F59216E5C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4672BD48-487A-42B6-826B-A11063C91AE4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FC08983A-A730-45C7-A74B-D31655698B76}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A36DA3CB-532A-4532-89EB-F67A4ED7FB2B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D8BC7931-9727-4526-BCDB-F1AD1E094EA2}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5390454A-77FC-4B09-A92B-24A89C3D2C91}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{57ACEEE3-963C-444C-88BB-53518FCCF3C4}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{3D55AF53-CF41-4AA3-9E80-8D1F73DA48C3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{95FF9892-732B-42FF-9A79-D42ADFD56F09}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{15D2DB27-4EB1-43A2-9BDF-48FB44F30B6D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{417F7805-ACEB-42EF-98B9-DC5FD6473DD2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6C4DB59C-2D9D-441D-A85C-8056E998EB0C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3ED27027-D940-47B7-A808-2E48C3F0CB75}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7A3DAE64-E17C-493E-B87C-73BEE838B301}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{560F4171-8A1B-4DFF-878A-AA4DC770218B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15331,7 +15331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EEC29C-2155-4182-AA0B-230470187079}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2AE5D2-E043-48A6-A9CD-6A6297DD5966}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -16581,18 +16581,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7B4522CB-2417-46CC-A926-5A8BEF7BCFDD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E365BA15-86EE-49F4-B5AC-BFF049D33C0F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{71C259DB-7A5A-4803-A91F-0EA3EFB2C3D0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{89651734-3437-4389-A0A8-EF750B73EC2D}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{22B58671-517B-4AA4-837D-49D39C6E6C9F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{71037B45-91FD-4A65-99A8-4E8B7C2A13CF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{91425568-659A-4211-A686-5CC540F82F2D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6A2F9CBB-C893-4265-BA99-503B0BC073E9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A811C5A0-B8C4-4A18-ACB7-0264433D8DE0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2F216690-05E3-46A0-A2DD-994649AA4C7A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{23CA9EC6-7D2D-41C1-BFDD-3DD4D2E75EC0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A59B5D5B-13DE-4F61-94F6-EB3E7A0E3D18}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8360D7DF-C10E-4412-9D3E-B8F4251674DA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2E62B3FB-021C-4FCA-A803-F3823FC29BDC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{863B95F0-D3D9-4628-8C21-32E3F473FB4D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B094FBB9-B5E1-4F02-AB4B-1A567D6610F4}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{CBBFE85D-793A-4D24-BB55-F7FD681103A2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C3DAA75C-7141-4A0A-B379-813AC017BA80}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C131DDCB-7959-4BB1-8E71-C79ED137E390}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A0977615-3838-44C2-813D-BABE200EF424}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8E9F3D49-4374-4155-A272-CC260AAE5F74}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F359221C-387D-42DE-B939-EBABE660E99A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CA701690-A515-4811-9DB5-B0392362391D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{13A8C9BE-5C37-481B-BE08-F1DEEEB60BDC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
